--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H2">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I2">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J2">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>16.41575872310963</v>
+        <v>18.162356559644</v>
       </c>
       <c r="R2">
-        <v>16.41575872310963</v>
+        <v>72.649426238576</v>
       </c>
       <c r="S2">
-        <v>0.0005176190028877673</v>
+        <v>0.0005450090498280107</v>
       </c>
       <c r="T2">
-        <v>0.0005176190028877673</v>
+        <v>0.0002688878602681173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H3">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I3">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J3">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>1180.160194983685</v>
+        <v>1256.626679052433</v>
       </c>
       <c r="R3">
-        <v>1180.160194983685</v>
+        <v>7539.760074314599</v>
       </c>
       <c r="S3">
-        <v>0.03721261707601236</v>
+        <v>0.03770837281438767</v>
       </c>
       <c r="T3">
-        <v>0.03721261707601236</v>
+        <v>0.02790593206696152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H4">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I4">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J4">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>1653.214620843824</v>
+        <v>1676.357695126452</v>
       </c>
       <c r="R4">
-        <v>1653.214620843824</v>
+        <v>10058.14617075871</v>
       </c>
       <c r="S4">
-        <v>0.05212889139238987</v>
+        <v>0.05030350062737947</v>
       </c>
       <c r="T4">
-        <v>0.05212889139238987</v>
+        <v>0.03722690655859855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H5">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I5">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J5">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>1253.859592838446</v>
+        <v>1291.802581075791</v>
       </c>
       <c r="R5">
-        <v>1253.859592838446</v>
+        <v>7750.815486454744</v>
       </c>
       <c r="S5">
-        <v>0.03953649436212927</v>
+        <v>0.03876391783001581</v>
       </c>
       <c r="T5">
-        <v>0.03953649436212927</v>
+        <v>0.02868708397836141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H6">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I6">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J6">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>44.49878218694447</v>
+        <v>56.25538383301468</v>
       </c>
       <c r="R6">
-        <v>44.49878218694447</v>
+        <v>337.5323029980881</v>
       </c>
       <c r="S6">
-        <v>0.00140312827776278</v>
+        <v>0.001688090044364944</v>
       </c>
       <c r="T6">
-        <v>0.00140312827776278</v>
+        <v>0.001249264356561898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H7">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I7">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J7">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>268.8611321392905</v>
+        <v>269.535505026293</v>
       </c>
       <c r="R7">
-        <v>268.8611321392905</v>
+        <v>1078.142020105172</v>
       </c>
       <c r="S7">
-        <v>0.008477684978233729</v>
+        <v>0.008088118356606713</v>
       </c>
       <c r="T7">
-        <v>0.008477684978233729</v>
+        <v>0.003990386653560273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H8">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J8">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>15.15721054004349</v>
+        <v>18.10456675201667</v>
       </c>
       <c r="R8">
-        <v>15.15721054004349</v>
+        <v>108.6274005121</v>
       </c>
       <c r="S8">
-        <v>0.0004779346686700734</v>
+        <v>0.0005432749153812343</v>
       </c>
       <c r="T8">
-        <v>0.0004779346686700734</v>
+        <v>0.0004020484510678342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H9">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J9">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>1089.680766394573</v>
+        <v>1252.628287444861</v>
       </c>
       <c r="R9">
-        <v>1089.680766394573</v>
+        <v>11273.65458700375</v>
       </c>
       <c r="S9">
-        <v>0.03435963462188918</v>
+        <v>0.03758839060812897</v>
       </c>
       <c r="T9">
-        <v>0.03435963462188918</v>
+        <v>0.04172570956509045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H10">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J10">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>1526.467493746233</v>
+        <v>1671.02378438652</v>
       </c>
       <c r="R10">
-        <v>1526.467493746233</v>
+        <v>15039.21405947868</v>
       </c>
       <c r="S10">
-        <v>0.04813232183665041</v>
+        <v>0.05014344267373832</v>
       </c>
       <c r="T10">
-        <v>0.04813232183665041</v>
+        <v>0.05566268445517555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H11">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J11">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>1157.729847085948</v>
+        <v>1287.692265192072</v>
       </c>
       <c r="R11">
-        <v>1157.729847085948</v>
+        <v>11589.23038672865</v>
       </c>
       <c r="S11">
-        <v>0.03650534703695485</v>
+        <v>0.03864057704288162</v>
       </c>
       <c r="T11">
-        <v>0.03650534703695485</v>
+        <v>0.04289370917546276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H12">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J12">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>41.08719077562613</v>
+        <v>56.07638790817224</v>
       </c>
       <c r="R12">
-        <v>41.08719077562613</v>
+        <v>504.6874911735501</v>
       </c>
       <c r="S12">
-        <v>0.00129555453874936</v>
+        <v>0.001682718803105524</v>
       </c>
       <c r="T12">
-        <v>0.00129555453874936</v>
+        <v>0.001867934086087562</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H13">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J13">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>248.2483359196034</v>
+        <v>268.6778847646792</v>
       </c>
       <c r="R13">
-        <v>248.2483359196034</v>
+        <v>1612.067308588075</v>
       </c>
       <c r="S13">
-        <v>0.00782772567961521</v>
+        <v>0.008062383215775156</v>
       </c>
       <c r="T13">
-        <v>0.00782772567961521</v>
+        <v>0.005966534791217183</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H14">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I14">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J14">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>32.45854147014099</v>
+        <v>36.19524583263</v>
       </c>
       <c r="R14">
-        <v>32.45854147014099</v>
+        <v>217.17147499578</v>
       </c>
       <c r="S14">
-        <v>0.001023477388670037</v>
+        <v>0.001086133094830047</v>
       </c>
       <c r="T14">
-        <v>0.001023477388670037</v>
+        <v>0.0008037884983581505</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H15">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I15">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J15">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>2333.506435883538</v>
+        <v>2504.29570737575</v>
       </c>
       <c r="R15">
-        <v>2333.506435883538</v>
+        <v>22538.66136638175</v>
       </c>
       <c r="S15">
-        <v>0.07357974096401794</v>
+        <v>0.07514794787136236</v>
       </c>
       <c r="T15">
-        <v>0.07357974096401794</v>
+        <v>0.08341941212601184</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H16">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I16">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J16">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>3268.867204667207</v>
+        <v>3340.765757971235</v>
       </c>
       <c r="R16">
-        <v>3268.867204667207</v>
+        <v>30066.89182174112</v>
       </c>
       <c r="S16">
-        <v>0.1030733828141842</v>
+        <v>0.1002484212591379</v>
       </c>
       <c r="T16">
-        <v>0.1030733828141842</v>
+        <v>0.1112826711158262</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H17">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I17">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J17">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>2479.23073665713</v>
+        <v>2574.39676595473</v>
       </c>
       <c r="R17">
-        <v>2479.23073665713</v>
+        <v>23169.57089359257</v>
       </c>
       <c r="S17">
-        <v>0.07817469563746576</v>
+        <v>0.07725151362851523</v>
       </c>
       <c r="T17">
-        <v>0.07817469563746576</v>
+        <v>0.08575451539630316</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H18">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I18">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J18">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>87.98652510361113</v>
+        <v>112.10976067771</v>
       </c>
       <c r="R18">
-        <v>87.98652510361113</v>
+        <v>1008.98784609939</v>
       </c>
       <c r="S18">
-        <v>0.002774376631618975</v>
+        <v>0.003364146824381146</v>
       </c>
       <c r="T18">
-        <v>0.002774376631618975</v>
+        <v>0.003734435315197877</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H19">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I19">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J19">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>531.6135765913048</v>
+        <v>537.1496717956725</v>
       </c>
       <c r="R19">
-        <v>531.6135765913048</v>
+        <v>3222.898030774035</v>
       </c>
       <c r="S19">
-        <v>0.01676275182148054</v>
+        <v>0.01611858192957564</v>
       </c>
       <c r="T19">
-        <v>0.01676275182148054</v>
+        <v>0.01192849276622374</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H20">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I20">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J20">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>31.1820066738357</v>
+        <v>34.74312506690866</v>
       </c>
       <c r="R20">
-        <v>31.1820066738357</v>
+        <v>208.458750401452</v>
       </c>
       <c r="S20">
-        <v>0.0009832259035233353</v>
+        <v>0.001042558410225528</v>
       </c>
       <c r="T20">
-        <v>0.0009832259035233353</v>
+        <v>0.0007715412254673663</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H21">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I21">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J21">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>2241.733915373091</v>
+        <v>2403.82561202116</v>
       </c>
       <c r="R21">
-        <v>2241.733915373091</v>
+        <v>21634.43050819044</v>
       </c>
       <c r="S21">
-        <v>0.07068598494820608</v>
+        <v>0.07213307967265062</v>
       </c>
       <c r="T21">
-        <v>0.07068598494820608</v>
+        <v>0.08007270020775087</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H22">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I22">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J22">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>3140.30866376365</v>
+        <v>3206.737235192493</v>
       </c>
       <c r="R22">
-        <v>3140.30866376365</v>
+        <v>28860.63511673244</v>
       </c>
       <c r="S22">
-        <v>0.09901969605637836</v>
+        <v>0.09622654460400154</v>
       </c>
       <c r="T22">
-        <v>0.09901969605637836</v>
+        <v>0.1068181102632915</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H23">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I23">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J23">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>2381.727147152845</v>
+        <v>2471.114279068604</v>
       </c>
       <c r="R23">
-        <v>2381.727147152845</v>
+        <v>22240.02851161743</v>
       </c>
       <c r="S23">
-        <v>0.07510022849717229</v>
+        <v>0.07415225226026551</v>
       </c>
       <c r="T23">
-        <v>0.07510022849717229</v>
+        <v>0.08231412123135784</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H24">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I24">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J24">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>84.5261767387879</v>
+        <v>107.6120177345362</v>
       </c>
       <c r="R24">
-        <v>84.5261767387879</v>
+        <v>968.5081596108261</v>
       </c>
       <c r="S24">
-        <v>0.002665265496370466</v>
+        <v>0.0032291802742102</v>
       </c>
       <c r="T24">
-        <v>0.002665265496370466</v>
+        <v>0.003584613123230521</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H25">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I25">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J25">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>510.7061914171623</v>
+        <v>515.5997092309281</v>
       </c>
       <c r="R25">
-        <v>510.7061914171623</v>
+        <v>3093.598255385568</v>
       </c>
       <c r="S25">
-        <v>0.01610350359242396</v>
+        <v>0.01547191889426571</v>
       </c>
       <c r="T25">
-        <v>0.01610350359242396</v>
+        <v>0.0114499323461706</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H26">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I26">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J26">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>10.41350049665487</v>
+        <v>11.70375212601933</v>
       </c>
       <c r="R26">
-        <v>10.41350049665487</v>
+        <v>70.22251275611599</v>
       </c>
       <c r="S26">
-        <v>0.0003283567841467822</v>
+        <v>0.0003512017179421229</v>
       </c>
       <c r="T26">
-        <v>0.0003283567841467822</v>
+        <v>0.0002599054414502243</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H27">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I27">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J27">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>748.6464064127587</v>
+        <v>809.765358271372</v>
       </c>
       <c r="R27">
-        <v>748.6464064127587</v>
+        <v>7287.888224442348</v>
       </c>
       <c r="S27">
-        <v>0.02360619529923719</v>
+        <v>0.0242991291931651</v>
       </c>
       <c r="T27">
-        <v>0.02360619529923719</v>
+        <v>0.02697371159007136</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H28">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I28">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J28">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>1048.733206038075</v>
+        <v>1080.238397141656</v>
       </c>
       <c r="R28">
-        <v>1048.733206038075</v>
+        <v>9722.145574274904</v>
       </c>
       <c r="S28">
-        <v>0.03306848288653997</v>
+        <v>0.03241538070682207</v>
       </c>
       <c r="T28">
-        <v>0.03306848288653997</v>
+        <v>0.03598331130788523</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H29">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I29">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J29">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>795.3983555068504</v>
+        <v>832.4325731087504</v>
       </c>
       <c r="R29">
-        <v>795.3983555068504</v>
+        <v>7491.893157978754</v>
       </c>
       <c r="S29">
-        <v>0.02508037006516353</v>
+        <v>0.02497931830740244</v>
       </c>
       <c r="T29">
-        <v>0.02508037006516353</v>
+        <v>0.02772876848319265</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H30">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I30">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J30">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>28.22824690715873</v>
+        <v>36.25075116070645</v>
       </c>
       <c r="R30">
-        <v>28.22824690715873</v>
+        <v>326.256760446358</v>
       </c>
       <c r="S30">
-        <v>0.0008900884365937708</v>
+        <v>0.001087798677488112</v>
       </c>
       <c r="T30">
-        <v>0.0008900884365937708</v>
+        <v>0.001207531659318835</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H31">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I31">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J31">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>170.5547443946186</v>
+        <v>173.6876340704878</v>
       </c>
       <c r="R31">
-        <v>170.5547443946186</v>
+        <v>1042.125804422927</v>
       </c>
       <c r="S31">
-        <v>0.005377904135922706</v>
+        <v>0.005211952099980537</v>
       </c>
       <c r="T31">
-        <v>0.005377904135922706</v>
+        <v>0.003857084524814601</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H32">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I32">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J32">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>12.23756351352885</v>
+        <v>13.569092528639</v>
       </c>
       <c r="R32">
-        <v>12.23756351352885</v>
+        <v>54.276370114556</v>
       </c>
       <c r="S32">
-        <v>0.000385872839050147</v>
+        <v>0.0004071761393834708</v>
       </c>
       <c r="T32">
-        <v>0.000385872839050147</v>
+        <v>0.0002008860603426758</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H33">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I33">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J33">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>879.7817746870279</v>
+        <v>938.8255112173082</v>
       </c>
       <c r="R33">
-        <v>879.7817746870279</v>
+        <v>5632.95306730385</v>
       </c>
       <c r="S33">
-        <v>0.02774113415368627</v>
+        <v>0.02817191690640781</v>
       </c>
       <c r="T33">
-        <v>0.02774113415368627</v>
+        <v>0.02084851561365543</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H34">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I34">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J34">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>1232.43276569299</v>
+        <v>1252.406459567529</v>
       </c>
       <c r="R34">
-        <v>1232.43276569299</v>
+        <v>7514.438757405173</v>
       </c>
       <c r="S34">
-        <v>0.03886086717430603</v>
+        <v>0.03758173408201943</v>
       </c>
       <c r="T34">
-        <v>0.03886086717430603</v>
+        <v>0.02781221357425674</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H35">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I35">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J35">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>934.722949040839</v>
+        <v>965.1054197614357</v>
       </c>
       <c r="R35">
-        <v>934.722949040839</v>
+        <v>5790.632518568615</v>
       </c>
       <c r="S35">
-        <v>0.0294735302229869</v>
+        <v>0.02896051435179806</v>
       </c>
       <c r="T35">
-        <v>0.0294735302229869</v>
+        <v>0.02143211403217013</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H36">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I36">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J36">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>33.17279953200143</v>
+        <v>42.02838469542968</v>
       </c>
       <c r="R36">
-        <v>33.17279953200143</v>
+        <v>252.170308172578</v>
       </c>
       <c r="S36">
-        <v>0.001045999256347361</v>
+        <v>0.001261171695062858</v>
       </c>
       <c r="T36">
-        <v>0.001045999256347361</v>
+        <v>0.0009333251217292106</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.68976706171239</v>
+        <v>6.7205465</v>
       </c>
       <c r="H37">
-        <v>6.68976706171239</v>
+        <v>13.441093</v>
       </c>
       <c r="I37">
-        <v>0.1038273191689394</v>
+        <v>0.1024251445921847</v>
       </c>
       <c r="J37">
-        <v>0.1038273191689394</v>
+        <v>0.07420827137966444</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>200.4296747028809</v>
+        <v>201.3699155968392</v>
       </c>
       <c r="R37">
-        <v>200.4296747028809</v>
+        <v>805.4796623873569</v>
       </c>
       <c r="S37">
-        <v>0.006319915522562711</v>
+        <v>0.006042631417513107</v>
       </c>
       <c r="T37">
-        <v>0.006319915522562711</v>
+        <v>0.002981216977510257</v>
       </c>
     </row>
   </sheetData>
